--- a/Zeszyt1.xlsx
+++ b/Zeszyt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaszs/Documents/GitHub/ursus2-0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8302900-4ACF-DB49-81C7-D1690145B706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8486EFDC-5BFA-2349-9D6E-01884C2D10DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{B7637B0F-DA04-8A42-9162-A92272B38F88}"/>
   </bookViews>
@@ -35,12 +35,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+  <si>
+    <t>typ użytkownika</t>
+  </si>
+  <si>
+    <t>imie</t>
+  </si>
+  <si>
+    <t>drugie imie</t>
+  </si>
+  <si>
+    <t>nazwisko</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>haslo</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>semestr</t>
+  </si>
+  <si>
+    <t>kierunek</t>
+  </si>
+  <si>
+    <t>nr indeksu</t>
+  </si>
+  <si>
+    <t>zlatan</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>thegoat</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>jankow1313</t>
+  </si>
+  <si>
+    <t>jasiu123</t>
+  </si>
+  <si>
+    <t>jas@gmail.com</t>
+  </si>
+  <si>
+    <t>Maciek</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>macp1414</t>
+  </si>
+  <si>
+    <t>macius123</t>
+  </si>
+  <si>
+    <t>maciek@gmail.com</t>
+  </si>
+  <si>
+    <t>CBE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -64,13 +153,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,12 +475,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646FA86A-6A96-EE48-9FAB-B55A32F582AA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>131313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>141414</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{0204B5E1-A5EC-8D4B-BC14-5E014F79CDFD}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{26E5FEEA-D074-884C-A968-5438A74B745A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>